--- a/data/pop_para_v1.xlsx
+++ b/data/pop_para_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Belém</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t xml:space="preserve">Bragança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benevides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Izabel do Pará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Bárbara do Pará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Antônio do Tauá</t>
   </si>
   <si>
     <t xml:space="preserve">1492745
@@ -63,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -84,6 +102,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,13 +151,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -162,21 +193,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="1:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.23"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -195,22 +228,40 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
+    <row r="2" s="2" customFormat="true" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>530598</v>
@@ -227,17 +278,35 @@
       <c r="F2" s="1" t="n">
         <v>200793</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="5" t="n">
         <v>157698</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="5" t="n">
         <v>136390</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="5" t="n">
         <v>129321</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="5" t="n">
         <v>126436</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>61689</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>69746</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>20704</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>101891</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>53191</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>31038</v>
       </c>
     </row>
   </sheetData>
